--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calca-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calca-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Calca</t>
   </si>
   <si>
     <t>Calcr</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,43 +537,43 @@
         <v>0.354751</v>
       </c>
       <c r="H2">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>3.630373</v>
+        <v>0.046576</v>
       </c>
       <c r="N2">
-        <v>7.260746</v>
+        <v>0.093152</v>
       </c>
       <c r="O2">
-        <v>0.9976963734668979</v>
+        <v>0.07994370161857847</v>
       </c>
       <c r="P2">
-        <v>0.9965485356427827</v>
+        <v>0.07994370161857847</v>
       </c>
       <c r="Q2">
-        <v>1.287878452123</v>
+        <v>0.016522882576</v>
       </c>
       <c r="R2">
-        <v>5.151513808492001</v>
+        <v>0.066091530304</v>
       </c>
       <c r="S2">
-        <v>0.9976963734668979</v>
+        <v>0.05649645256930848</v>
       </c>
       <c r="T2">
-        <v>0.9965485356427827</v>
+        <v>0.04927094240376017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,43 +599,167 @@
         <v>0.354751</v>
       </c>
       <c r="H3">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.536034</v>
+      </c>
+      <c r="N3">
+        <v>1.072068</v>
+      </c>
+      <c r="O3">
+        <v>0.9200562983814217</v>
+      </c>
+      <c r="P3">
+        <v>0.9200562983814217</v>
+      </c>
+      <c r="Q3">
+        <v>0.190158597534</v>
+      </c>
+      <c r="R3">
+        <v>0.760634390136</v>
+      </c>
+      <c r="S3">
+        <v>0.6502065324745944</v>
+      </c>
+      <c r="T3">
+        <v>0.5670495607277821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M3">
-        <v>0.008382333333333334</v>
-      </c>
-      <c r="N3">
-        <v>0.025147</v>
-      </c>
-      <c r="O3">
-        <v>0.00230362653310207</v>
-      </c>
-      <c r="P3">
-        <v>0.003451464357217434</v>
-      </c>
-      <c r="Q3">
-        <v>0.002973641132333334</v>
-      </c>
-      <c r="R3">
-        <v>0.017841846794</v>
-      </c>
-      <c r="S3">
-        <v>0.00230362653310207</v>
-      </c>
-      <c r="T3">
-        <v>0.003451464357217434</v>
+      <c r="G4">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H4">
+        <v>0.441688</v>
+      </c>
+      <c r="I4">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J4">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.046576</v>
+      </c>
+      <c r="N4">
+        <v>0.093152</v>
+      </c>
+      <c r="O4">
+        <v>0.07994370161857847</v>
+      </c>
+      <c r="P4">
+        <v>0.07994370161857847</v>
+      </c>
+      <c r="Q4">
+        <v>0.006857353429333334</v>
+      </c>
+      <c r="R4">
+        <v>0.041144120576</v>
+      </c>
+      <c r="S4">
+        <v>0.02344724904926998</v>
+      </c>
+      <c r="T4">
+        <v>0.03067275921481831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H5">
+        <v>0.441688</v>
+      </c>
+      <c r="I5">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J5">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.536034</v>
+      </c>
+      <c r="N5">
+        <v>1.072068</v>
+      </c>
+      <c r="O5">
+        <v>0.9200562983814217</v>
+      </c>
+      <c r="P5">
+        <v>0.9200562983814217</v>
+      </c>
+      <c r="Q5">
+        <v>0.07891992846400001</v>
+      </c>
+      <c r="R5">
+        <v>0.473519570784</v>
+      </c>
+      <c r="S5">
+        <v>0.2698497659068273</v>
+      </c>
+      <c r="T5">
+        <v>0.3530067376536397</v>
       </c>
     </row>
   </sheetData>
